--- a/example/game_06_abyssal_nightfall/operators.xlsx
+++ b/example/game_06_abyssal_nightfall/operators.xlsx
@@ -531,7 +531,7 @@
         <v>passive:precision-lock</v>
       </c>
       <c r="N6" t="str">
-        <v>art/operators/sable.png</v>
+        <v>ui/assets/operators/sable.svg</v>
       </c>
     </row>
     <row r="7">
@@ -575,7 +575,7 @@
         <v>passive:seraph-ward</v>
       </c>
       <c r="N7" t="str">
-        <v>art/operators/iris.png</v>
+        <v>ui/assets/operators/iris.svg</v>
       </c>
     </row>
     <row r="8">
@@ -619,7 +619,7 @@
         <v>passive:undertow-grip</v>
       </c>
       <c r="N8" t="str">
-        <v>art/operators/marlow.png</v>
+        <v>ui/assets/operators/marlow.svg</v>
       </c>
     </row>
   </sheetData>

--- a/example/game_06_abyssal_nightfall/operators.xlsx
+++ b/example/game_06_abyssal_nightfall/operators.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:N8"/>
+  <dimension ref="A4:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,6 +445,12 @@
       <c r="N4" t="str">
         <v>string</v>
       </c>
+      <c r="O4" t="str">
+        <v>string</v>
+      </c>
+      <c r="P4" t="str">
+        <v>float</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -489,6 +495,12 @@
       <c r="N5" t="str">
         <v>portraitArt</v>
       </c>
+      <c r="O5" t="str">
+        <v>sprite</v>
+      </c>
+      <c r="P5" t="str">
+        <v>spriteScale</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -533,6 +545,12 @@
       <c r="N6" t="str">
         <v>ui/assets/operators/sable.svg</v>
       </c>
+      <c r="O6" t="str">
+        <v>ui/assets/actors/sable.png</v>
+      </c>
+      <c r="P6" t="str">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -577,6 +595,12 @@
       <c r="N7" t="str">
         <v>ui/assets/operators/iris.svg</v>
       </c>
+      <c r="O7" t="str">
+        <v>ui/assets/actors/iris.png</v>
+      </c>
+      <c r="P7" t="str">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -621,10 +645,16 @@
       <c r="N8" t="str">
         <v>ui/assets/operators/marlow.svg</v>
       </c>
+      <c r="O8" t="str">
+        <v>ui/assets/actors/marlow.png</v>
+      </c>
+      <c r="P8" t="str">
+        <v>0.95</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:N8"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:P8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/example/game_06_abyssal_nightfall/operators.xlsx
+++ b/example/game_06_abyssal_nightfall/operators.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:P8"/>
+  <dimension ref="A4:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,9 @@
       <c r="P4" t="str">
         <v>float</v>
       </c>
+      <c r="Q4" t="str">
+        <v>string</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -501,6 +504,9 @@
       <c r="P5" t="str">
         <v>spriteScale</v>
       </c>
+      <c r="Q5" t="str">
+        <v>themeTrack</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -513,16 +519,16 @@
         <v>0001</v>
       </c>
       <c r="D6" t="str">
-        <v>Sable Hart</v>
+        <v>萨布尔「霓虹猎手」</v>
       </c>
       <c r="E6" t="str">
-        <v>Reclaimer</v>
+        <v>霓虹清剿者</v>
       </c>
       <c r="F6" t="str">
-        <v>weapon:runic-revolver</v>
+        <v>weapon:20020001</v>
       </c>
       <c r="G6" t="str">
-        <v>relic:void-orbit</v>
+        <v>relic:30050001</v>
       </c>
       <c r="H6" t="str">
         <v>135</v>
@@ -550,6 +556,9 @@
       </c>
       <c r="P6" t="str">
         <v>0.9</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>ui/assets/topdown/top-down-shooter/music/theme-1.ogg</v>
       </c>
     </row>
     <row r="7">
@@ -563,16 +572,16 @@
         <v>0002</v>
       </c>
       <c r="D7" t="str">
-        <v>Iris Calder</v>
+        <v>伊莉丝「破晓灯塔」</v>
       </c>
       <c r="E7" t="str">
-        <v>Beacon</v>
+        <v>共鸣信标师</v>
       </c>
       <c r="F7" t="str">
-        <v>weapon:chorus-ray</v>
+        <v>weapon:20020002</v>
       </c>
       <c r="G7" t="str">
-        <v>relic:sigil-halo</v>
+        <v>relic:30050002</v>
       </c>
       <c r="H7" t="str">
         <v>120</v>
@@ -600,6 +609,9 @@
       </c>
       <c r="P7" t="str">
         <v>0.92</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>ui/assets/topdown/top-down-shooter/music/theme-2.ogg</v>
       </c>
     </row>
     <row r="8">
@@ -613,16 +625,16 @@
         <v>0003</v>
       </c>
       <c r="D8" t="str">
-        <v>Marlow Reef</v>
+        <v>马洛「潮汐制裁」</v>
       </c>
       <c r="E8" t="str">
-        <v>Harpooner</v>
+        <v>深渊猎手</v>
       </c>
       <c r="F8" t="str">
-        <v>weapon:tidebreaker</v>
+        <v>weapon:20020003</v>
       </c>
       <c r="G8" t="str">
-        <v>relic:maelstrom-core</v>
+        <v>relic:30050003</v>
       </c>
       <c r="H8" t="str">
         <v>150</v>
@@ -649,12 +661,15 @@
         <v>ui/assets/actors/marlow.png</v>
       </c>
       <c r="P8" t="str">
-        <v>0.95</v>
+        <v>0.88</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>ui/assets/topdown/top-down-shooter/music/theme-3.ogg</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A4:P8"/>
+    <ignoredError numberStoredAsText="1" sqref="A4:Q8"/>
   </ignoredErrors>
 </worksheet>
 </file>